--- a/Tables/Sources/sdk/ad_scene_config.xlsx
+++ b/Tables/Sources/sdk/ad_scene_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18140" windowHeight="10740"/>
+    <workbookView windowWidth="18510" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Max" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>13931136155951383946</t>
+  </si>
+  <si>
+    <t>DoubleReward</t>
+  </si>
+  <si>
+    <t>1159209346300241210</t>
   </si>
   <si>
     <t>广告类型</t>
@@ -374,11 +380,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -423,23 +429,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,15 +445,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,24 +513,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,14 +539,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,16 +551,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,22 +560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,6 +594,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,55 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,13 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,17 +980,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,8 +1024,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,6 +1035,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,36 +1077,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1710,10 +1716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1803,6 +1809,14 @@
       </c>
       <c r="B10" s="42" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="14.75" spans="1:2">
+      <c r="A11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1844,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1920,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1929,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
@@ -1941,16 +1955,16 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1958,51 +1972,51 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2015,16 +2029,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2037,16 +2051,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2059,16 +2073,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2081,16 +2095,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2103,16 +2117,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2125,22 +2139,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2151,22 +2165,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2177,16 +2191,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2199,16 +2213,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2221,16 +2235,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2243,16 +2257,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2289,141 +2303,141 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="38"/>
     </row>
@@ -2460,7 +2474,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2475,66 +2489,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -2543,15 +2557,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2560,16 +2574,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -2580,7 +2594,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -2594,7 +2608,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2608,7 +2622,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -2622,7 +2636,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -2636,7 +2650,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -2650,7 +2664,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2728,15 +2742,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -2745,16 +2759,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2765,7 +2779,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2779,7 +2793,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2793,7 +2807,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -2807,7 +2821,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -2821,7 +2835,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -2835,7 +2849,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2913,15 +2927,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -2930,16 +2944,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -2950,7 +2964,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -2964,7 +2978,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -2978,7 +2992,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -2992,7 +3006,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3006,7 +3020,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3020,7 +3034,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3098,15 +3112,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3115,16 +3129,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3135,7 +3149,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3149,7 +3163,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3163,7 +3177,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -3177,7 +3191,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -3191,7 +3205,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -3205,7 +3219,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3323,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3338,66 +3352,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -3406,15 +3420,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3423,16 +3437,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -3443,7 +3457,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3457,7 +3471,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3471,7 +3485,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -3485,7 +3499,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -3499,7 +3513,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -3513,7 +3527,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3591,15 +3605,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3608,16 +3622,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3628,7 +3642,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3642,7 +3656,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3656,7 +3670,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3670,7 +3684,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3684,7 +3698,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3698,7 +3712,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3776,15 +3790,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3793,16 +3807,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3813,7 +3827,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3827,7 +3841,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3841,7 +3855,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -3855,7 +3869,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3869,7 +3883,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3883,7 +3897,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3961,15 +3975,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3978,16 +3992,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3998,7 +4012,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4012,7 +4026,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4026,7 +4040,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -4040,7 +4054,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -4054,7 +4068,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -4068,7 +4082,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4182,398 +4196,398 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -4581,31 +4595,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
